--- a/sd-update-conf-publication/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/sd-update-conf-publication/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-qa-preview-1</t>
+    <t>0.4.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T14:29:23+00:00</t>
+    <t>2024-05-16T14:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
